--- a/outputs-GTDB-r202/g__CAG-127.xlsx
+++ b/outputs-GTDB-r202/g__CAG-127.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>s__CAG-127 sp002431865</t>
+          <t>s__CAG-127 sp002431865(reject)</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>s__CAG-127 sp900319515</t>
+          <t>s__CAG-127 sp900319515(reject)</t>
         </is>
       </c>
     </row>
